--- a/biology/Botanique/Jacquemontia/Jacquemontia.xlsx
+++ b/biology/Botanique/Jacquemontia/Jacquemontia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacquemontia est un genre de plantes de la famille des Convolvulaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (23 septembre 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (23 septembre 2019) :
 Jacquemontia agrestis (Mart. ex Choisy) Meisn.
 Jacquemontia azurea (Desr.) Choisy
 Jacquemontia cayensis Britt.
@@ -527,7 +541,7 @@
 Jacquemontia solanifolia (L.) Hallier
 Jacquemontia tamnifolia (L.) Griseb.
 Jacquemontia verticillata (L.) Urban
-Selon Catalogue of Life                                   (23 septembre 2019)[3] :
+Selon Catalogue of Life                                   (23 septembre 2019) :
 Jacquemontia abutiloides Benth.
 Jacquemontia acrocephala Meisn.
 Jacquemontia acuminata Rusby
@@ -633,7 +647,7 @@
 Jacquemontia warmingii O'Donell
 Jacquemontia weberbaueri Helwig
 Jacquemontia zollingeri (Choisy) Hall. fil.
-Selon GRIN            (23 septembre 2019)[4] :
+Selon GRIN            (23 septembre 2019) :
 Jacquemontia aequisepala M. Pastore &amp; Sim.-Bianch.
 Jacquemontia coelestis Van Houtte ex Planch.
 Jacquemontia curtissii Peter ex Hallier f.
@@ -645,7 +659,7 @@
 Jacquemontia spp.
 Jacquemontia tamnifolia (L.) Griseb.
 Jacquemontia verticillata (L.) Urb.
-Selon ITIS      (23 septembre 2019)[5] :
+Selon ITIS      (23 septembre 2019) :
 Jacquemontia agrestis (Mart. ex Choisy) Meisn.
 Jacquemontia cayensis Britton
 Jacquemontia cumanensis (Kunth) Kuntze
@@ -658,7 +672,7 @@
 Jacquemontia solanifolia (L.) Hallier
 Jacquemontia tamnifolia (L.) Griseb.
 Jacquemontia verticillata (L.) Urb.
-Selon World Checklist of Selected Plant Families (WCSP)  (23 septembre 2019)[6] :
+Selon World Checklist of Selected Plant Families (WCSP)  (23 septembre 2019) :
 Jacquemontia abutiloides Benth. (1844)
 Jacquemontia acrocephala Meisn. (1869)
 Jacquemontia acuminata Rusby (1896)
@@ -778,7 +792,7 @@
 Jacquemontia zollingeri (Choisy) Hallier f. (1893)
 variété Jacquemontia zollingeri var. jonkeri Ooststr. (1939)
 variété Jacquemontia zollingeri var. zollingeri
-Selon The Plant List            (23 septembre 2019)[7] :
+Selon The Plant List            (23 septembre 2019) :
 Jacquemontia abutiloides Benth.
 Jacquemontia acuminata Rusby
 Jacquemontia agrestis (Mart. ex Choisy) Meisn.
@@ -857,7 +871,7 @@
 Jacquemontia velutina Choisy
 Jacquemontia verticillata (L.) Urb.
 Jacquemontia weberbaueri Helwing
-Selon Tropicos                                           (23 septembre 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (23 septembre 2019) (Attention liste brute contenant possiblement des synonymes) :
 Jacquemontia abutiloides Benth.
 Jacquemontia acropetala Meisn.
 Jacquemontia acuminata Rusby
